--- a/medicine/Pharmacie/Chronologie_des_vaccins/Chronologie_des_vaccins.xlsx
+++ b/medicine/Pharmacie/Chronologie_des_vaccins/Chronologie_des_vaccins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histoire de la vaccination commence avec les inoculations expérimentales de la variole des vaches, dans les années 1790. Les premiers vaccins sont datés de leur année de développement ou d'essai mais les plus récents sont datés de l'année de commercialisation ou des derniers tests. Seule la variole a été éradiquée dans le monde entier. La poliomyélite et la rougeole sont les cibles actuelles de campagnes mondiales d'éradication.
 </t>
@@ -511,9 +523,11 @@
           <t>XVIIIe siècle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1796 : tout premier vaccin, en l'occurrence contre la variole, mis au point par Edward Jenner[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1796 : tout premier vaccin, en l'occurrence contre la variole, mis au point par Edward Jenner.</t>
         </is>
       </c>
     </row>
@@ -541,7 +555,9 @@
           <t>XIXe siècle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1879 : premier vaccin contre le choléra des poules
 1880 : premier vaccin contre la maladie du charbon
@@ -575,7 +591,9 @@
           <t>XXe siècle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1921 : premier vaccin contre la tuberculose
 1923 : premier vaccin contre la diphtérie
@@ -626,14 +644,16 @@
           <t>XXIe siècle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>8 juin 2006 : premier vaccin contre le papillomavirus
-2012 : premier vaccin contre l'hépatite E[2] ;
+2012 : premier vaccin contre l'hépatite E ;
 2012 : premier vaccin quadrivalent contre la grippe saisonnière ;
-2015 : premier vaccin contre l'entérovirus 71 (une des causes du syndrome pieds-mains-bouche)[3] ;
-2015 : premier vaccin contre la malaria[4]
-2015 : premier vaccin contre la dengue, Dengvaxia[5] ;
+2015 : premier vaccin contre l'entérovirus 71 (une des causes du syndrome pieds-mains-bouche) ;
+2015 : premier vaccin contre la malaria
+2015 : premier vaccin contre la dengue, Dengvaxia ;
 2019 : premier vaccin approuvé contre ébola.
 2020 : premier vaccin contre la COVID-19.</t>
         </is>
